--- a/data/trans_bre/MCS12_SP_R3-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R3-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>12.48950311124388</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8005933038522379</v>
+        <v>0.8005933038522366</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4620021995958866</v>
@@ -649,7 +649,7 @@
         <v>0.3996918247500612</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.133079372892116</v>
+        <v>0.1330793728921157</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.796718754004623</v>
+        <v>0.6885029884189214</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.92049393658244</v>
+        <v>11.90594706134875</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.294652502439742</v>
+        <v>4.272158809288617</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.441446942012229</v>
+        <v>-2.261860047973484</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04096676300282216</v>
+        <v>0.03197366048762881</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3116425462868131</v>
+        <v>0.3219085096256014</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1173142660373587</v>
+        <v>0.1203442843662003</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.301803571385861</v>
+        <v>-0.3027820610028387</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.08331017901734</v>
+        <v>15.43700123109588</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>29.06692099442706</v>
+        <v>29.59196730747728</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.50017303859975</v>
+        <v>20.71185768223267</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.942036256172208</v>
+        <v>4.104394524953665</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.102783946080104</v>
+        <v>1.080097827447008</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.034489948928877</v>
+        <v>1.055124085497682</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7425325933822723</v>
+        <v>0.7759499555886263</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9352532986607223</v>
+        <v>0.9384554859407956</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>6.868595518209733</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.350416763245002</v>
+        <v>8.350416763244997</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5355014676816685</v>
@@ -749,7 +749,7 @@
         <v>0.8037133911237307</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5261723543400234</v>
+        <v>0.5261723543400231</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.61422398761864</v>
+        <v>8.652807887866674</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.639766128229882</v>
+        <v>5.001237629736997</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.035191674526769</v>
+        <v>2.771470351050722</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.191495801902593</v>
+        <v>3.385907867787334</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2882441527238881</v>
+        <v>0.2888215371563728</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3101199573157199</v>
+        <v>0.2830468010973821</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2794339866668455</v>
+        <v>0.2766250983924791</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1746843421136277</v>
+        <v>0.1857351271250604</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>20.57066584746953</v>
+        <v>20.37396349176712</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.10548907343447</v>
+        <v>15.57551980394517</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.09724242247428</v>
+        <v>11.01379742793699</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.89828540232176</v>
+        <v>13.46451161699095</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8799910795459757</v>
+        <v>0.8670913785007136</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.263430857622279</v>
+        <v>1.23000221881859</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.623714775471735</v>
+        <v>1.631517543043058</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.011670063091248</v>
+        <v>1.0253205314451</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.925965750993012</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.15610090991309</v>
+        <v>6.156100909913095</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.812732716777457</v>
@@ -849,7 +849,7 @@
         <v>0.4996364279739801</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4407602027843234</v>
+        <v>0.4407602027843238</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.622754582613091</v>
+        <v>2.951773093134727</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.098664268717206</v>
+        <v>2.34094545352705</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1432863907601113</v>
+        <v>-0.4436973590394119</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.054703156323042</v>
+        <v>0.6205363979794818</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3582337257809982</v>
+        <v>0.4931438814870167</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1077622303234832</v>
+        <v>0.1311814975681182</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.01342921215980214</v>
+        <v>-0.06700557481564982</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.04270574962492495</v>
+        <v>0.04679912520186728</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.59921207997049</v>
+        <v>10.6366753088345</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.31782232097126</v>
+        <v>14.95043962521128</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.736057923028437</v>
+        <v>9.755593333147647</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.74792410846744</v>
+        <v>10.677699733972</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.630911569703906</v>
+        <v>5.041685078590866</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.192388592364579</v>
+        <v>1.240245418571017</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.24566484305452</v>
+        <v>1.213754309753147</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.961886755562173</v>
+        <v>0.9436986228148664</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.99779584369921</v>
+        <v>1.946306655832425</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>13.45942169706799</v>
+        <v>12.42784619076457</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.768190198500125</v>
+        <v>5.84928072293606</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.378580590704692</v>
+        <v>2.91843255214407</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1320969937849288</v>
+        <v>0.1115048117227707</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5069777167284563</v>
+        <v>0.4729838328785028</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.267184240017237</v>
+        <v>0.2516805968369797</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1272689141801164</v>
+        <v>0.1597803038595477</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.85942303812094</v>
+        <v>11.62978945645368</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>27.1282477318598</v>
+        <v>26.20050929106609</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19.22874747740524</v>
+        <v>18.67148409071888</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13.88887712816548</v>
+        <v>14.43715053110447</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.638655110452913</v>
+        <v>1.498026886698329</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.412482411409809</v>
+        <v>1.377902497116534</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.134877860347532</v>
+        <v>1.114555291901808</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.405104686515233</v>
+        <v>1.43513328812222</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9035756827484229</v>
+        <v>-0.8471983270607417</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.16902661465687</v>
+        <v>10.42250760551554</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7127554928414123</v>
+        <v>-0.406637220469426</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.926134548135428</v>
+        <v>3.618096269263467</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.02470370773908777</v>
+        <v>-0.02678967000104398</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6606610346402884</v>
+        <v>0.6544231835491403</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01715913915938619</v>
+        <v>-0.009324992033142061</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.05619677511879453</v>
+        <v>0.0720954109499185</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.26030803783523</v>
+        <v>17.11072460879393</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.80632775864347</v>
+        <v>26.34968335469962</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19.21713593769809</v>
+        <v>18.34547343329858</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.55749016848488</v>
+        <v>19.51923006663565</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6684777423296375</v>
+        <v>0.6512279036648242</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.810021870139849</v>
+        <v>2.719006182776089</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5322759414157879</v>
+        <v>0.5081950517644078</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4321634880067435</v>
+        <v>0.4595070288129496</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>11.31435597259773</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4.459608908876522</v>
+        <v>4.459608908876514</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.86781987249434</v>
@@ -1149,7 +1149,7 @@
         <v>0.9378467162960222</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2871979559326235</v>
+        <v>0.2871979559326229</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.754521659778089</v>
+        <v>5.086073451027946</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.591753700315605</v>
+        <v>2.684851658045912</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.307941123218289</v>
+        <v>5.420488261477901</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.7747709210657144</v>
+        <v>-0.4527247903495628</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6273843597906709</v>
+        <v>0.6384459067656267</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1183288965226298</v>
+        <v>0.1311875368783645</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3574094398254277</v>
+        <v>0.3493604952117718</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.04596426764096562</v>
+        <v>-0.02846142574159666</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.82251671073611</v>
+        <v>14.66548499441765</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>16.28279938524174</v>
+        <v>15.93520105248722</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.71334013571515</v>
+        <v>17.66107284803334</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.269415654887265</v>
+        <v>9.37362921501302</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.295834000171608</v>
+        <v>4.364999037430335</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.250334837203318</v>
+        <v>1.205979140279535</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.946418640447841</v>
+        <v>1.920929679002601</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7184709589131123</v>
+        <v>0.6954349492045762</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>9.126065973843087</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11.7955068231088</v>
+        <v>11.79550682310879</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4183817611466761</v>
@@ -1249,7 +1249,7 @@
         <v>0.4415632447188758</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4648131523199763</v>
+        <v>0.4648131523199761</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.384295045044157</v>
+        <v>1.486383233936252</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.290318063699911</v>
+        <v>-0.1373657614180598</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.01350216858165</v>
+        <v>4.175610925572372</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.703587061689061</v>
+        <v>6.717510683164157</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1161216872076777</v>
+        <v>0.0881260037166989</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01103788797048895</v>
+        <v>-0.006833374867514275</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1777989693767876</v>
+        <v>0.1776313222041608</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2399327717656381</v>
+        <v>0.2276850984965685</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.31724700852089</v>
+        <v>10.42297741111419</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.513552033980726</v>
+        <v>9.516115948604137</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.94113829883995</v>
+        <v>13.97580837060628</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16.98576438887104</v>
+        <v>16.8422690665555</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8527134563172435</v>
+        <v>0.8574085967838555</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.557237252048382</v>
+        <v>0.5609674363102043</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7891704716007359</v>
+        <v>0.7682457097105749</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7868569933495585</v>
+        <v>0.7495429131773845</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>3.644241731559175</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7.678635908982126</v>
+        <v>7.678635908982129</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1996683358701736</v>
@@ -1349,7 +1349,7 @@
         <v>0.1917186782078062</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.3492928238278336</v>
+        <v>0.3492928238278337</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8856908370065988</v>
+        <v>1.190953339219638</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6079887271915461</v>
+        <v>0.998567688869287</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.4685243602122113</v>
+        <v>-0.3724574107559007</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.922202582581523</v>
+        <v>3.826887992794871</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02942684197662161</v>
+        <v>0.03701302005787812</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01769158038532698</v>
+        <v>0.0268564447094597</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02053886943706144</v>
+        <v>-0.01968402749875809</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1623483798791998</v>
+        <v>0.1563934252583356</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>10.78346064797124</v>
+        <v>11.1667911102907</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10.8665369944109</v>
+        <v>10.57541723401072</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.8583619642335</v>
+        <v>7.882434068495435</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>11.67481772808395</v>
+        <v>12.10446347923018</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3915979003691391</v>
+        <v>0.3991241808715958</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3554203488440926</v>
+        <v>0.3376639037606376</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4616837262787502</v>
+        <v>0.4551773818004733</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5831237852615428</v>
+        <v>0.6168949879373752</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>7.912548894577679</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8.111340538362018</v>
+        <v>8.111340538362017</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4247794081696776</v>
@@ -1449,7 +1449,7 @@
         <v>0.4195092813502437</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.4126156965623948</v>
+        <v>0.4126156965623946</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.050017222940678</v>
+        <v>5.724462077078582</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.384628641114118</v>
+        <v>8.268148374944792</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.689328416125558</v>
+        <v>5.8114887715644</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.177423812842616</v>
+        <v>6.10525232304289</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3076922461266403</v>
+        <v>0.2957828573757993</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3590280488103464</v>
+        <v>0.3586824462692156</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2840650311185055</v>
+        <v>0.2933181176964981</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.2967137624895722</v>
+        <v>0.2942518601644283</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.992588226256119</v>
+        <v>9.916639773541922</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>12.78927471477439</v>
+        <v>12.55324189040538</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.795778703046087</v>
+        <v>9.996641981189109</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.05029369490251</v>
+        <v>10.03296606875853</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5685594910138259</v>
+        <v>0.5708221697932828</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5975998306837175</v>
+        <v>0.5914786756200353</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5552152658278421</v>
+        <v>0.5548894353969893</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.5394217818318021</v>
+        <v>0.5393168320784444</v>
       </c>
     </row>
     <row r="31">
